--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ .xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB90C0F-A6FC-4BAD-B160-A50983F92780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C7C5B-678F-4343-8295-ED189CF065D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="139">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>Vytvoření prezentace</t>
+  </si>
+  <si>
+    <t>Napojení databáze</t>
+  </si>
+  <si>
+    <t>Další úprava designu</t>
+  </si>
+  <si>
+    <t>Button odhlášení</t>
+  </si>
+  <si>
+    <t>Sehnání obrázků do designu</t>
   </si>
 </sst>
 </file>
@@ -1506,69 +1518,120 @@
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1576,6 +1639,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1587,66 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2379,13 +2391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2396,28 +2408,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="109"/>
+      <c r="C3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="109"/>
+      <c r="C5" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2466,53 +2478,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2562,45 +2574,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2660,61 +2672,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="93" t="s">
+      <c r="C44" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="95"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2726,10 +2738,10 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="98"/>
+      <c r="E48" s="97"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
@@ -2797,8 +2809,8 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2821,10 +2833,10 @@
       <c r="C57" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="93" t="s">
+      <c r="D57" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="95"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
@@ -2833,10 +2845,10 @@
       <c r="C58" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="111" t="s">
+      <c r="D58" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="95"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
@@ -2845,21 +2857,26 @@
       <c r="C59" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="95"/>
+      <c r="E59" s="93"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2870,16 +2887,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2894,11 +2906,11 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3428,21 +3440,21 @@
       <c r="B15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="129"/>
+      <c r="D15" s="114"/>
       <c r="K15" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="114"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="131"/>
       <c r="T15" s="13" t="s">
         <v>105</v>
       </c>
@@ -3461,33 +3473,33 @@
       <c r="B16" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="130" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="136" t="s">
+      <c r="F16" s="126"/>
+      <c r="G16" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134" t="s">
+      <c r="H16" s="120"/>
+      <c r="I16" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="135"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="128" t="s">
+      <c r="L16" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="129"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="117" t="s">
+      <c r="M16" s="114"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="S16" s="118"/>
+      <c r="S16" s="138"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3502,23 +3514,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="136"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3533,23 +3545,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="116"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="136"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3564,23 +3576,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="121"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="136"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3595,23 +3607,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="121"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="116"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="136"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3626,23 +3638,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="116"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="136"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3656,11 +3668,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="L17:M17"/>
@@ -3677,38 +3716,11 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3723,9 +3735,9 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3848,7 +3860,7 @@
         <v>117</v>
       </c>
       <c r="G8" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,36 +3896,68 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="40">
+        <v>45636</v>
+      </c>
       <c r="E11" s="41"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="42">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="40">
+        <v>45658</v>
+      </c>
       <c r="E12" s="41"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="40">
+        <v>45658</v>
+      </c>
       <c r="E13" s="41"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="42"/>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="40">
+        <v>45658</v>
+      </c>
       <c r="E14" s="41"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
@@ -5864,7 +5908,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
